--- a/DATA_goal/Junction_Flooding_440.xlsx
+++ b/DATA_goal/Junction_Flooding_440.xlsx
@@ -655,103 +655,103 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.38</v>
+        <v>43.79</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_440.xlsx
+++ b/DATA_goal/Junction_Flooding_440.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45121.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45121.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.54</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.73</v>
+        <v>7.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.651</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>24.472</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.25</v>
+        <v>20.288</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.16</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.73</v>
+        <v>38.153</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.66</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.25</v>
+        <v>5.973</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.85</v>
+        <v>9.134</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.04</v>
+        <v>9.702</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.73</v>
+        <v>10.195</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.99</v>
+        <v>2.901</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.19</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.68</v>
+        <v>12.709</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.66</v>
+        <v>7.741</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.596</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.922</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.79</v>
+        <v>130.034</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>25.359</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.84</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.97</v>
+        <v>16.769</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.76</v>
+        <v>8.959</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.47</v>
+        <v>1.119</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.27</v>
+        <v>17.834</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.14</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.46</v>
+        <v>6.705</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.46</v>
+        <v>7.833</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.1</v>
+        <v>10.152</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.09</v>
+        <v>34.546</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.05</v>
+        <v>4.611</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.59</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45121.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.01</v>
+        <v>1.922</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.17</v>
+        <v>0.998</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.838</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>3.782</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.24</v>
+        <v>3.179</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.85</v>
+        <v>1.515</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.632</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.3</v>
+        <v>2.327</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.35</v>
+        <v>1.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.48</v>
+        <v>1.473</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.42</v>
+        <v>1.494</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.505</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.86</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.23</v>
+        <v>2.131</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.43</v>
+        <v>1.494</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.968</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.383</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.2</v>
+        <v>15.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.17</v>
+        <v>4.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.58</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.45</v>
+        <v>2.937</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.24</v>
+        <v>1.642</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.139</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.58</v>
+        <v>4.884</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.03</v>
+        <v>1.226</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.83</v>
+        <v>1.271</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.29</v>
+        <v>1.448</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.64</v>
+        <v>1.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.34</v>
+        <v>10.757</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.676</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.26</v>
+        <v>1.743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45121.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.5</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.73</v>
+        <v>0.75</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.14</v>
+        <v>2.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.3</v>
+        <v>2.39</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.51</v>
+        <v>1.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.71</v>
+        <v>6.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.82</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.9</v>
+        <v>1.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.01</v>
+        <v>1.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.03</v>
+        <v>1.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.52</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.72</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.15</v>
+        <v>1.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.55</v>
+        <v>9.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.17</v>
+        <v>3.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.82</v>
+        <v>1.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.75</v>
+        <v>2.69</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.04</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.17</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>5.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.34</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_440.xlsx
+++ b/DATA_goal/Junction_Flooding_440.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45121.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.021</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.687</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.255</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.696</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.946</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.904</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.181</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.086</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.432</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.179</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.925</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.923</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.036</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.798</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.508</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.598</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.832</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.606</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>278.79</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.368</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.351</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.892</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.126</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.393</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.289</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.326</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.706</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.029</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.711</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.641</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.941</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.693</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45121.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.53</v>
+        <v>4.535</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.99</v>
+        <v>3.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.651</v>
+        <v>0.531</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.472</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.288</v>
+        <v>8.244999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.074</v>
+        <v>3.159</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.153</v>
+        <v>11.727</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.961</v>
+        <v>4.663</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.973</v>
+        <v>2.254</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.134</v>
+        <v>3.853</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.702</v>
+        <v>4.042</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.195</v>
+        <v>3.731</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.901</v>
+        <v>0.992</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.023</v>
+        <v>3.188</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.709</v>
+        <v>4.679</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.741</v>
+        <v>2.665</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.596</v>
+        <v>0.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.922</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.034</v>
+        <v>43.791</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.359</v>
+        <v>9.121</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>2.841</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.769</v>
+        <v>5.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.959</v>
+        <v>3.764</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.119</v>
+        <v>0.467</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.834</v>
+        <v>7.271</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.357</v>
+        <v>2.138</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.705</v>
+        <v>3.457</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.833</v>
+        <v>2.459</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.152</v>
+        <v>4.103</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.546</v>
+        <v>10.088</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.611</v>
+        <v>2.046</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.413</v>
+        <v>3.594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45121.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.922</v>
+        <v>4.012</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.998</v>
+        <v>3.173</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.838</v>
+        <v>0.373</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.782</v>
+        <v>8.129</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.179</v>
+        <v>7.242</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.515</v>
+        <v>2.846</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.632</v>
+        <v>11.748</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.327</v>
+        <v>4.297</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.052</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.38</v>
+        <v>3.348</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.473</v>
+        <v>3.484</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.494</v>
+        <v>3.42</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.921</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.504</v>
+        <v>2.862</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.131</v>
+        <v>4.227</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.494</v>
+        <v>2.432</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.968</v>
+        <v>0.411</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.383</v>
+        <v>0.002</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.66</v>
+        <v>38.204</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.6</v>
+        <v>8.167</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.388</v>
+        <v>2.577</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.937</v>
+        <v>5.449</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.642</v>
+        <v>3.243</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.139</v>
+        <v>0.403</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.884</v>
+        <v>6.576</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.226</v>
+        <v>2.029</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.271</v>
+        <v>2.831</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.448</v>
+        <v>2.287</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.54</v>
+        <v>3.637</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.757</v>
+        <v>10.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.676</v>
+        <v>1.775</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.743</v>
+        <v>3.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45121.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>3.499</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.75</v>
+        <v>2.728</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.291</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.84</v>
+        <v>7.144</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.708</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>32.545</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>7.166</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.819</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.803</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.751</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.388</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.457000000000001</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.877</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC6" s="4" t="n">
         <v>2.39</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+      <c r="AD6" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_440.xlsx
+++ b/DATA_goal/Junction_Flooding_440.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45121.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.926</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.074</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.442</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.413</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.191000000000001</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.526</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.102</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.543</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.171</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.877</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.454</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.766</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.485</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.205</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.632</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.995</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.545</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.641</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.661</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.552</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.905</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.889</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.236</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.485</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.812</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.376</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.752</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45121.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.535</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.73</v>
+        <v>7.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.531</v>
+        <v>1.651</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>24.472</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.244999999999999</v>
+        <v>20.288</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.159</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.727</v>
+        <v>38.153</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.663</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.254</v>
+        <v>5.973</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.853</v>
+        <v>9.134</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.042</v>
+        <v>9.702</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.731</v>
+        <v>10.195</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.992</v>
+        <v>2.901</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.188</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.679</v>
+        <v>12.709</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.665</v>
+        <v>7.741</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.594</v>
+        <v>1.596</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.922</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.791</v>
+        <v>130.034</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.121</v>
+        <v>25.359</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.841</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.97</v>
+        <v>16.769</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.764</v>
+        <v>8.959</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.467</v>
+        <v>1.119</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.271</v>
+        <v>17.834</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.138</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.457</v>
+        <v>6.705</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.459</v>
+        <v>7.833</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.103</v>
+        <v>10.152</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.033</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.088</v>
+        <v>34.546</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.046</v>
+        <v>4.611</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.594</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45121.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.012</v>
+        <v>1.922</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.173</v>
+        <v>0.998</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.373</v>
+        <v>0.838</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.129</v>
+        <v>3.782</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.242</v>
+        <v>3.179</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.846</v>
+        <v>1.515</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.748</v>
+        <v>11.632</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.297</v>
+        <v>2.327</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.052</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.348</v>
+        <v>1.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.484</v>
+        <v>1.473</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.42</v>
+        <v>1.494</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.921</v>
+        <v>0.505</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.862</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.227</v>
+        <v>2.131</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.432</v>
+        <v>1.494</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.411</v>
+        <v>0.968</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.002</v>
+        <v>0.383</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.204</v>
+        <v>15.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.167</v>
+        <v>4.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.577</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.449</v>
+        <v>2.937</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.243</v>
+        <v>1.642</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.403</v>
+        <v>0.139</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.576</v>
+        <v>4.884</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.029</v>
+        <v>1.226</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.831</v>
+        <v>1.271</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.287</v>
+        <v>1.448</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.637</v>
+        <v>1.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.34</v>
+        <v>10.757</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.775</v>
+        <v>0.676</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.259</v>
+        <v>1.743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45121.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.499</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.728</v>
+        <v>0.75</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.291</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.144</v>
+        <v>2.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.3</v>
+        <v>2.39</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.506</v>
+        <v>1.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.708</v>
+        <v>6.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.818</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.812</v>
+        <v>0.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.901</v>
+        <v>1.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.013</v>
+        <v>1.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.027</v>
+        <v>1.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.515</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.724</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.147</v>
+        <v>1.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.317</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.004</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.545</v>
+        <v>9.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.166</v>
+        <v>3.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.275</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.819</v>
+        <v>1.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.803</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.751</v>
+        <v>2.69</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.825</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.388</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.036</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.173</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.457000000000001</v>
+        <v>5.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.535</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.877</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.34</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
